--- a/source-22.xlsx
+++ b/source-22.xlsx
@@ -550,6 +550,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -726,12 +727,12 @@
   <dimension ref="A1:C172"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J34" activeCellId="0" sqref="J34"/>
+      <selection pane="topLeft" activeCell="K20" activeCellId="0" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
